--- a/biology/Zoologie/Agorophius/Agorophius.xlsx
+++ b/biology/Zoologie/Agorophius/Agorophius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agorophius pygmaeus
 Agorophius est un genre éteint de cétacés à dents qui a vécu lors de l’Oligocène. Ses restes fossiles ont été mis au jour au large de l’actuelle Caroline du Sud. Une seule espèce est connue, Agorophius pygmaeus.
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Agorophius pygmaeus a été mentionnée pour la première fois en 1849 par le médecin et naturaliste allemand Johannes Peter Müller[1] (1801-1858) sous le protonyme de Zeuglodon pygmaeus[2].
-En 1895, le paléontologue américain Edward Drinker Cope (1840-1897) crée le genre Agorophius pour y reclasser cette espèce sous son taxon actuel[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Agorophius pygmaeus a été mentionnée pour la première fois en 1849 par le médecin et naturaliste allemand Johannes Peter Müller (1801-1858) sous le protonyme de Zeuglodon pygmaeus.
+En 1895, le paléontologue américain Edward Drinker Cope (1840-1897) crée le genre Agorophius pour y reclasser cette espèce sous son taxon actuel,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Genre Agorophius :
 (en) E. D. Cope, « Fourth Contribution to the Marine Fauna of the Miocene Period of the United States », Proceedings of the American Philosophical Society, Philadelphie, APS, vol. 34, no 147,‎ 1895, p. 135-155 (ISSN 0003-049X et 2326-9243, OCLC 1480557, JSTOR 983163, lire en ligne)
